--- a/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>320318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>293019</v>
+        <v>295608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>339201</v>
+        <v>339512</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8556756156844272</v>
+        <v>0.8556756156844275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7827518122709319</v>
+        <v>0.7896671300654382</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.906119402612161</v>
+        <v>0.9069490669945641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>167</v>
@@ -762,19 +762,19 @@
         <v>294254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>273980</v>
+        <v>271672</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309693</v>
+        <v>308561</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8786631060315273</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8181241695020329</v>
+        <v>0.8112328152669454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9247653615337598</v>
+        <v>0.9213852958386345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>303</v>
@@ -783,19 +783,19 @@
         <v>614572</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>581628</v>
+        <v>583518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>636965</v>
+        <v>640637</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8665299239976488</v>
+        <v>0.8665299239976487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8200805335568996</v>
+        <v>0.8227448145570704</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8981044572477692</v>
+        <v>0.9032810881955426</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>54027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35144</v>
+        <v>34833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81326</v>
+        <v>78737</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1443243843155727</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0938805973878392</v>
+        <v>0.09305093300543568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2172481877290682</v>
+        <v>0.2103328699345619</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -833,19 +833,19 @@
         <v>40634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25195</v>
+        <v>26327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60908</v>
+        <v>63216</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1213368939684726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0752346384662399</v>
+        <v>0.07861470416136539</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1818758304979668</v>
+        <v>0.1887671847330545</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -854,19 +854,19 @@
         <v>94661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72268</v>
+        <v>68596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>127605</v>
+        <v>125715</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1334700760023512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1018955427522307</v>
+        <v>0.09671891180445746</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1799194664431004</v>
+        <v>0.1772551854429297</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>417813</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>405375</v>
+        <v>404502</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>427796</v>
+        <v>427367</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9553333598058846</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9268932413713504</v>
+        <v>0.924898011159799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9781586490071311</v>
+        <v>0.9771786295560547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>375</v>
@@ -979,19 +979,19 @@
         <v>406713</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>392488</v>
+        <v>391680</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>418585</v>
+        <v>417114</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9161439105826509</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8841015719773858</v>
+        <v>0.8822810548469195</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9428874453199853</v>
+        <v>0.9395735518954204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>637</v>
@@ -1000,19 +1000,19 @@
         <v>824526</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>804346</v>
+        <v>804608</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>839452</v>
+        <v>838791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9355920739261795</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9126931866628553</v>
+        <v>0.9129906693481165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9525280378700891</v>
+        <v>0.951778725530821</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>19535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9552</v>
+        <v>9981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31973</v>
+        <v>32846</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04466664019411533</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02184135099286893</v>
+        <v>0.02282137044394533</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07310675862864961</v>
+        <v>0.07510198884020153</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -1050,19 +1050,19 @@
         <v>37227</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25355</v>
+        <v>26826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51452</v>
+        <v>52260</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08385608941734896</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05711255468001451</v>
+        <v>0.06042644810457961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1158984280226141</v>
+        <v>0.1177189451530805</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -1071,19 +1071,19 @@
         <v>56762</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41836</v>
+        <v>42497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76942</v>
+        <v>76680</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06440792607382048</v>
+        <v>0.06440792607382047</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04747196212991103</v>
+        <v>0.04822127446917896</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08730681333714484</v>
+        <v>0.0870093306518834</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>546666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>538087</v>
+        <v>538154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>551650</v>
+        <v>551929</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9827677271805817</v>
+        <v>0.9827677271805818</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9673460361877885</v>
+        <v>0.9674667948708304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9917277480132313</v>
+        <v>0.9922306591950973</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>695</v>
@@ -1196,19 +1196,19 @@
         <v>508076</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>498075</v>
+        <v>499390</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>515206</v>
+        <v>515451</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9544380375704962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9356507375165035</v>
+        <v>0.9381219084500099</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9678322638324462</v>
+        <v>0.9682923585121265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1176</v>
@@ -1217,19 +1217,19 @@
         <v>1054743</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1042087</v>
+        <v>1042785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1063514</v>
+        <v>1064177</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9689141489208106</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.957288828452604</v>
+        <v>0.9579296337379448</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9769716271884575</v>
+        <v>0.9775806593952273</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>9585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4601</v>
+        <v>4322</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18164</v>
+        <v>18097</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01723227281941825</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008272251986768708</v>
+        <v>0.007769340804902635</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03265396381221147</v>
+        <v>0.0325332051291694</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -1267,19 +1267,19 @@
         <v>24254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17124</v>
+        <v>16879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34255</v>
+        <v>32940</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04556196242950384</v>
+        <v>0.04556196242950385</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03216773616755365</v>
+        <v>0.03170764148787365</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06434926248349662</v>
+        <v>0.06187809154999034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -1288,19 +1288,19 @@
         <v>33839</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25068</v>
+        <v>24405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46495</v>
+        <v>45797</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03108585107918927</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02302837281154243</v>
+        <v>0.02241934060477281</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04271117154739586</v>
+        <v>0.04207036626205539</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>563425</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>552253</v>
+        <v>551393</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>572717</v>
+        <v>572547</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9605757337169036</v>
+        <v>0.9605757337169034</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9415288631284979</v>
+        <v>0.940062178190069</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9764176083602552</v>
+        <v>0.9761290111362756</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>915</v>
@@ -1413,19 +1413,19 @@
         <v>588581</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>576572</v>
+        <v>577696</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>597451</v>
+        <v>597391</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9344977561446203</v>
+        <v>0.9344977561446205</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9154304920266458</v>
+        <v>0.9172149260048506</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9485803659390388</v>
+        <v>0.9484845903836934</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1455</v>
@@ -1434,19 +1434,19 @@
         <v>1152006</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1135783</v>
+        <v>1135476</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1164991</v>
+        <v>1166285</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9470727262971227</v>
+        <v>0.9470727262971225</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9337358146200143</v>
+        <v>0.933482928734542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9577476060254132</v>
+        <v>0.9588117534437394</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>23124</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13832</v>
+        <v>14002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34296</v>
+        <v>35156</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03942426628309654</v>
+        <v>0.03942426628309653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02358239163974504</v>
+        <v>0.02387098886372415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05847113687150204</v>
+        <v>0.05993782180993001</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -1484,19 +1484,19 @@
         <v>41256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32386</v>
+        <v>32446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53265</v>
+        <v>52141</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06550224385537963</v>
+        <v>0.06550224385537964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0514196340609611</v>
+        <v>0.05151540961630663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08456950797335422</v>
+        <v>0.08278507399514988</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -1505,19 +1505,19 @@
         <v>64380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>51395</v>
+        <v>50101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80603</v>
+        <v>80910</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05292727370287745</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04225239397458658</v>
+        <v>0.0411882465562606</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06626418537998527</v>
+        <v>0.06651707126545785</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>341573</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>333037</v>
+        <v>333270</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>346747</v>
+        <v>346474</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9715416534641115</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.947262933826679</v>
+        <v>0.9479267253856113</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9862597113780537</v>
+        <v>0.9854830758301496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>544</v>
@@ -1630,19 +1630,19 @@
         <v>329676</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>314198</v>
+        <v>314376</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342917</v>
+        <v>342228</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7321326099203597</v>
+        <v>0.7321326099203596</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.697757957381308</v>
+        <v>0.6981552067426497</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7615374749218995</v>
+        <v>0.7600078180847765</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>915</v>
@@ -1651,19 +1651,19 @@
         <v>671249</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>654698</v>
+        <v>653570</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>687712</v>
+        <v>688286</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8371003288622436</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8164603184899778</v>
+        <v>0.8150537762029652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8576309756429077</v>
+        <v>0.858346470452736</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>10005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4831</v>
+        <v>5104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18541</v>
+        <v>18308</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02845834653588859</v>
+        <v>0.02845834653588858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01374028862194616</v>
+        <v>0.01451692416985026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05273706617332096</v>
+        <v>0.05207327461438877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>199</v>
@@ -1701,19 +1701,19 @@
         <v>120620</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>107379</v>
+        <v>108068</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136098</v>
+        <v>135920</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2678673900796404</v>
+        <v>0.2678673900796403</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2384625250781014</v>
+        <v>0.2399921819152235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3022420426186924</v>
+        <v>0.3018447932573503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -1722,19 +1722,19 @@
         <v>130625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>114162</v>
+        <v>113588</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147176</v>
+        <v>148304</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1628996711377564</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1423690243570923</v>
+        <v>0.1416535295472638</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1835396815100222</v>
+        <v>0.1849462237970349</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>25367</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21143</v>
+        <v>21038</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28887</v>
+        <v>28838</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7761658593888686</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.646932315174948</v>
+        <v>0.6437068889989631</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8838951580893171</v>
+        <v>0.8823752466392075</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1847,19 +1847,19 @@
         <v>34651</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27099</v>
+        <v>27364</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42762</v>
+        <v>42870</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1632144762102587</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.127642149737289</v>
+        <v>0.1288905051270857</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2014191901773975</v>
+        <v>0.2019270850349624</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>100</v>
@@ -1868,19 +1868,19 @@
         <v>60017</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50549</v>
+        <v>49810</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71535</v>
+        <v>71195</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2449839722215235</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2063346189929547</v>
+        <v>0.2033172773933236</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2919992125127494</v>
+        <v>0.2906090704973416</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>7315</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3795</v>
+        <v>3844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11539</v>
+        <v>11644</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2238341406111314</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1161048419106831</v>
+        <v>0.1176247533607922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3530676848250522</v>
+        <v>0.3562931110010367</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>339</v>
@@ -1918,19 +1918,19 @@
         <v>177652</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>169541</v>
+        <v>169433</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>185204</v>
+        <v>184939</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8367855237897414</v>
+        <v>0.8367855237897412</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7985808098226025</v>
+        <v>0.7980729149650375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.872357850262711</v>
+        <v>0.8711094948729142</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>350</v>
@@ -1939,19 +1939,19 @@
         <v>184968</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>173450</v>
+        <v>173790</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>194436</v>
+        <v>195175</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7550160277784767</v>
+        <v>0.7550160277784764</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7080007874872513</v>
+        <v>0.7093909295026584</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7936653810070455</v>
+        <v>0.7966827226066765</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>2712</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>958</v>
+        <v>833</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5032</v>
+        <v>4615</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4808784723212912</v>
+        <v>0.4808784723212913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1698645881009706</v>
+        <v>0.147770768321873</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8924251133784483</v>
+        <v>0.818374666649175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2064,19 +2064,19 @@
         <v>24514</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17220</v>
+        <v>18017</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31822</v>
+        <v>31454</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09888336088347244</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06945981590462534</v>
+        <v>0.072673513572899</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1283597051369989</v>
+        <v>0.1268746469805963</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -2085,19 +2085,19 @@
         <v>27226</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20367</v>
+        <v>20427</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34897</v>
+        <v>36306</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1073793233626844</v>
+        <v>0.1073793233626843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0803279413505182</v>
+        <v>0.08056240361684205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1376337188711352</v>
+        <v>0.1431924406469986</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2927</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>604</v>
+        <v>1029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4678</v>
+        <v>4806</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5191215276787087</v>
+        <v>0.5191215276787088</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1071690512855352</v>
+        <v>0.1824766188572816</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8295202498999139</v>
+        <v>0.8522316370514776</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>416</v>
@@ -2135,19 +2135,19 @@
         <v>223397</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>216089</v>
+        <v>216457</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>230691</v>
+        <v>229894</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9011166391165276</v>
+        <v>0.9011166391165275</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8716402948630009</v>
+        <v>0.8731253530194035</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9305401840953746</v>
+        <v>0.9273264864271009</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>421</v>
@@ -2156,19 +2156,19 @@
         <v>226324</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>218653</v>
+        <v>217244</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>233183</v>
+        <v>233123</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8926206766373157</v>
+        <v>0.8926206766373156</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8623662811288646</v>
+        <v>0.8568075593530017</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9196720586494816</v>
+        <v>0.919437596383158</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>2217872</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2183725</v>
+        <v>2184747</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2244342</v>
+        <v>2244027</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.94603301393177</v>
+        <v>0.9460330139317702</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9314674318280844</v>
+        <v>0.9319032442755407</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9573235433288995</v>
+        <v>0.9571891430337899</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2803</v>
@@ -2281,19 +2281,19 @@
         <v>2186466</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2148871</v>
+        <v>2144569</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2225621</v>
+        <v>2227466</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7667759827088031</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7535919355079969</v>
+        <v>0.7520832779206509</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7805075141317626</v>
+        <v>0.7811545316952804</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4633</v>
@@ -2302,19 +2302,19 @@
         <v>4404338</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4353373</v>
+        <v>4356288</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4451659</v>
+        <v>4451094</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8476568765894112</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8378481942069994</v>
+        <v>0.8384092055529448</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8567642617854185</v>
+        <v>0.8566555622068365</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>126520</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>100050</v>
+        <v>100365</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>160667</v>
+        <v>159645</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05396698606822983</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04267645667110068</v>
+        <v>0.04281085696620989</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06853256817191566</v>
+        <v>0.0680967557244594</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1104</v>
@@ -2352,19 +2352,19 @@
         <v>665039</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>625884</v>
+        <v>624039</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>702634</v>
+        <v>706936</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2332240172911969</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2194924858682374</v>
+        <v>0.2188454683047194</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2464080644920033</v>
+        <v>0.2479167220793488</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1192</v>
@@ -2373,19 +2373,19 @@
         <v>791559</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>744238</v>
+        <v>744803</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>842524</v>
+        <v>839609</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1523431234105887</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1432357382145817</v>
+        <v>0.1433444377931634</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1621518057930006</v>
+        <v>0.1615907944470552</v>
       </c>
     </row>
     <row r="27">
